--- a/a-17-2mo.xlsx
+++ b/a-17-2mo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29960" yWindow="-6960" windowWidth="23340" windowHeight="13860" tabRatio="993"/>
+    <workbookView xWindow="1280" yWindow="1200" windowWidth="23340" windowHeight="13860" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset1" sheetId="1" r:id="rId1"/>
@@ -354,8 +354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2660,498 +2660,198 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A288" s="1">
-        <v>43022</v>
-      </c>
-      <c r="B288">
-        <v>339.63</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A289" s="1">
-        <v>43023</v>
-      </c>
-      <c r="B289">
-        <v>336.6</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A290" s="1">
-        <v>43024</v>
-      </c>
-      <c r="B290">
-        <v>333.38</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A291" s="1">
-        <v>43025</v>
-      </c>
-      <c r="B291">
-        <v>317.08</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A292" s="1">
-        <v>43026</v>
-      </c>
-      <c r="B292">
-        <v>314.32</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A293" s="1">
-        <v>43027</v>
-      </c>
-      <c r="B293">
-        <v>308.08999999999997</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A294" s="1">
-        <v>43028</v>
-      </c>
-      <c r="B294">
-        <v>304.01</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A295" s="1">
-        <v>43029</v>
-      </c>
-      <c r="B295">
-        <v>300.19</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A296" s="1">
-        <v>43030</v>
-      </c>
-      <c r="B296">
-        <v>295.45</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A297" s="1">
-        <v>43031</v>
-      </c>
-      <c r="B297">
-        <v>286.95</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A298" s="1">
-        <v>43032</v>
-      </c>
-      <c r="B298">
-        <v>298.33</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A299" s="1">
-        <v>43033</v>
-      </c>
-      <c r="B299">
-        <v>297.93</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A300" s="1">
-        <v>43034</v>
-      </c>
-      <c r="B300">
-        <v>296.52999999999997</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A301" s="1">
-        <v>43035</v>
-      </c>
-      <c r="B301">
-        <v>297.42</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A302" s="1">
-        <v>43036</v>
-      </c>
-      <c r="B302">
-        <v>296.3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A303" s="1">
-        <v>43037</v>
-      </c>
-      <c r="B303">
-        <v>305.08999999999997</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A304" s="1">
-        <v>43038</v>
-      </c>
-      <c r="B304">
-        <v>307.75</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A305" s="1">
-        <v>43039</v>
-      </c>
-      <c r="B305">
-        <v>305.88</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A306" s="1">
-        <v>43040</v>
-      </c>
-      <c r="B306">
-        <v>291.69</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A307" s="1">
-        <v>43041</v>
-      </c>
-      <c r="B307">
-        <v>287.43</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A308" s="1">
-        <v>43042</v>
-      </c>
-      <c r="B308">
-        <v>305.70999999999998</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A309" s="1">
-        <v>43043</v>
-      </c>
-      <c r="B309">
-        <v>300.47000000000003</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A310" s="1">
-        <v>43044</v>
-      </c>
-      <c r="B310">
-        <v>296.26</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A311" s="1">
-        <v>43045</v>
-      </c>
-      <c r="B311">
-        <v>298.89</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A312" s="1">
-        <v>43046</v>
-      </c>
-      <c r="B312">
-        <v>294.66000000000003</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A313" s="1">
-        <v>43047</v>
-      </c>
-      <c r="B313">
-        <v>309.07</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A314" s="1">
-        <v>43048</v>
-      </c>
-      <c r="B314">
-        <v>320.88</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A315" s="1">
-        <v>43049</v>
-      </c>
-      <c r="B315">
-        <v>299.25</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A316" s="1">
-        <v>43050</v>
-      </c>
-      <c r="B316">
-        <v>314.68</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A317" s="1">
-        <v>43051</v>
-      </c>
-      <c r="B317">
-        <v>307.91000000000003</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A318" s="1">
-        <v>43052</v>
-      </c>
-      <c r="B318">
-        <v>316.72000000000003</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A319" s="1">
-        <v>43053</v>
-      </c>
-      <c r="B319">
-        <v>337.63</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A320" s="1">
-        <v>43054</v>
-      </c>
-      <c r="B320">
-        <v>333.36</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A321" s="1">
-        <v>43055</v>
-      </c>
-      <c r="B321">
-        <v>330.92</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A322" s="1">
-        <v>43056</v>
-      </c>
-      <c r="B322">
-        <v>332.39</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A323" s="1">
-        <v>43057</v>
-      </c>
-      <c r="B323">
-        <v>347.61</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A324" s="1">
-        <v>43058</v>
-      </c>
-      <c r="B324">
-        <v>354.39</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A325" s="1">
-        <v>43059</v>
-      </c>
-      <c r="B325">
-        <v>366.73</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A326" s="1">
-        <v>43060</v>
-      </c>
-      <c r="B326">
-        <v>360.4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A327" s="1">
-        <v>43061</v>
-      </c>
-      <c r="B327">
-        <v>380.65</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A328" s="1">
-        <v>43062</v>
-      </c>
-      <c r="B328">
-        <v>410.17</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A329" s="1">
-        <v>43063</v>
-      </c>
-      <c r="B329">
-        <v>474.91</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A330" s="1">
-        <v>43064</v>
-      </c>
-      <c r="B330">
-        <v>466.28</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A331" s="1">
-        <v>43065</v>
-      </c>
-      <c r="B331">
-        <v>471.33</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A332" s="1">
-        <v>43066</v>
-      </c>
-      <c r="B332">
-        <v>480.36</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A333" s="1">
-        <v>43067</v>
-      </c>
-      <c r="B333">
-        <v>472.9</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A334" s="1">
-        <v>43068</v>
-      </c>
-      <c r="B334">
-        <v>427.52</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A335" s="1">
-        <v>43069</v>
-      </c>
-      <c r="B335">
-        <v>447.11</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A336" s="1">
-        <v>43070</v>
-      </c>
-      <c r="B336">
-        <v>466.54</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A337" s="1">
-        <v>43071</v>
-      </c>
-      <c r="B337">
-        <v>463.45</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A338" s="1">
-        <v>43072</v>
-      </c>
-      <c r="B338">
-        <v>465.85</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A339" s="1">
-        <v>43073</v>
-      </c>
-      <c r="B339">
-        <v>470.2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A340" s="1">
-        <v>43074</v>
-      </c>
-      <c r="B340">
-        <v>463.28</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A341" s="1">
-        <v>43075</v>
-      </c>
-      <c r="B341">
-        <v>428.59</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A342" s="1">
-        <v>43076</v>
-      </c>
-      <c r="B342">
-        <v>434.41</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A343" s="1">
-        <v>43077</v>
-      </c>
-      <c r="B343">
-        <v>456.03</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A344" s="1">
-        <v>43078</v>
-      </c>
-      <c r="B344">
-        <v>473.5</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A345" s="1">
-        <v>43079</v>
-      </c>
-      <c r="B345">
-        <v>441.72</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A346" s="1">
-        <v>43080</v>
-      </c>
-      <c r="B346">
-        <v>515.14</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A347" s="1">
-        <v>43081</v>
-      </c>
-      <c r="B347">
-        <v>621.13</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" s="1"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" s="1"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319" s="1"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330" s="1"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332" s="1"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" s="1"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" s="1"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335" s="1"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338" s="1"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341" s="1"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343" s="1"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345" s="1"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346" s="1"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A348" s="1"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A349" s="1"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A350" s="1"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A351" s="1"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A352" s="1"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.15">
